--- a/ResultadoEleicoesDistritos/GUARDA_ALMEIDA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_ALMEIDA.xlsx
@@ -597,25 +597,25 @@
         <v>1911</v>
       </c>
       <c r="H2" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T2" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="U2" t="n">
         <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>1198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
